--- a/biology/Neurosciences/Charles_Randy_Gallistel/Charles_Randy_Gallistel.xlsx
+++ b/biology/Neurosciences/Charles_Randy_Gallistel/Charles_Randy_Gallistel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Ransom (Randy) Gallistel, né le 18 mai 1941 à Indianapolis, est un spécialiste américain des bases neurobiologiques et cellulaires de la mémoire et des processus cognitifs de l’apprentissage. 
 </t>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Ransom Gallistel est membre de l'Académie nationale des sciences depuis 2002, et de l’Académie américaine des arts et des sciences depuis 2001.
-Il étudie à l’université Stanford [1], puis soutient sa thèse de doctorat à l'université Yale en 1966. Membre de la faculté de l'université de Pennsylvanie (1966-1989), puis de l'université de Californie à Los Angeles (1989-2000), il est membre de l'université de l'État du New Jersey à Rutgers  (2000 -2015) dont il est professeur émérite depuis 2015.
-Il est co-auteur, avec Rochel Gelman (en), d’un ouvrage sur le développement du nombre et des mathématiques chez l’enfant[2] 
-Étudiant les propriétés psychophysiques de la mémoire, telles que  la durée des intervalles, la distance et le nombre, il fait l'hypothèse que la courbe d'apprentissage n'est pas un phénomène gradué [3].
-Il publie, en 1990, The Organization of Learning, dans lequel il critique la conception associationniste de l’apprentissage. Il y développe un modèle computationnel du conditionnement selon lequel la réaction à un stimulus n'est pas déterminé par des associations, mais dérive d’un calcul algébrique matriciel du taux de renforcement compte tenu de l'état de l’environnement (Rate Estimation Theory)[4],[5],[6]. Plus récemment, cette théorie a été intégrée à une théorie beaucoup plus générale, qui porte sur la selection de modèles stochastiques à l'aide du concept de longueur de description minimale, développée par le statisticien finlandais Jorma Rissanen dans le cadre de la théorie de l'information[7],[8],[9],[10]. 
-En ce qui concerne l'apprentissage, il soutient que différents aspects de l'expérience sont appris par différents organes d'apprentissage, en fonction des formes mathématiques de ce qu'il faut apprendre [11]. Dans sa théorie du souvenir, la fonction associative - déplacer la pensée de mémoire en mémoire - est réalisée par des indices spatio-temporels inclus dans chaque mémoire, plutôt que par des connexions associatives entre mémoires [12]. Il est un fervent adept de la théorie computationnelle de l'esprit
-Il critique les hypothèses selon lesquelles la mémoire se réduit à des connexions synaptiques alternées, en remarquant que cette théorie ne parvient pas à expliquer comment le cerveau code des données quantitatives telles que les distances, les directions et les durées. Il propose que les souvenirs résident plutôt au niveau moléculaire dans les neurones et souligne les vastes capacités de stockage d'information des polynucléotides [13],[14],[15],[16],[17],[18].
-Auteur d’un ensemble importants de travaux sur l’appréhension de nombre, d'espace et du temps chez l'humain et l'animal[19],[20], ses travaux portent aussi sur les relations entre connaissances préverbales et langage[21] et sont une contribution importante à la théorie computo-représentationelle de l'esprit/cerveau développée par Jerry Fodor et Noam Chomsky selon laquelle l'esprit/cerveau met en jeu des représentations mentales symboliques abstraites et spécialisées sur lesquelles portent des calculs.
+Il étudie à l’université Stanford , puis soutient sa thèse de doctorat à l'université Yale en 1966. Membre de la faculté de l'université de Pennsylvanie (1966-1989), puis de l'université de Californie à Los Angeles (1989-2000), il est membre de l'université de l'État du New Jersey à Rutgers  (2000 -2015) dont il est professeur émérite depuis 2015.
+Il est co-auteur, avec Rochel Gelman (en), d’un ouvrage sur le développement du nombre et des mathématiques chez l’enfant 
+Étudiant les propriétés psychophysiques de la mémoire, telles que  la durée des intervalles, la distance et le nombre, il fait l'hypothèse que la courbe d'apprentissage n'est pas un phénomène gradué .
+Il publie, en 1990, The Organization of Learning, dans lequel il critique la conception associationniste de l’apprentissage. Il y développe un modèle computationnel du conditionnement selon lequel la réaction à un stimulus n'est pas déterminé par des associations, mais dérive d’un calcul algébrique matriciel du taux de renforcement compte tenu de l'état de l’environnement (Rate Estimation Theory). Plus récemment, cette théorie a été intégrée à une théorie beaucoup plus générale, qui porte sur la selection de modèles stochastiques à l'aide du concept de longueur de description minimale, développée par le statisticien finlandais Jorma Rissanen dans le cadre de la théorie de l'information. 
+En ce qui concerne l'apprentissage, il soutient que différents aspects de l'expérience sont appris par différents organes d'apprentissage, en fonction des formes mathématiques de ce qu'il faut apprendre . Dans sa théorie du souvenir, la fonction associative - déplacer la pensée de mémoire en mémoire - est réalisée par des indices spatio-temporels inclus dans chaque mémoire, plutôt que par des connexions associatives entre mémoires . Il est un fervent adept de la théorie computationnelle de l'esprit
+Il critique les hypothèses selon lesquelles la mémoire se réduit à des connexions synaptiques alternées, en remarquant que cette théorie ne parvient pas à expliquer comment le cerveau code des données quantitatives telles que les distances, les directions et les durées. Il propose que les souvenirs résident plutôt au niveau moléculaire dans les neurones et souligne les vastes capacités de stockage d'information des polynucléotides .
+Auteur d’un ensemble importants de travaux sur l’appréhension de nombre, d'espace et du temps chez l'humain et l'animal ses travaux portent aussi sur les relations entre connaissances préverbales et langage et sont une contribution importante à la théorie computo-représentationelle de l'esprit/cerveau développée par Jerry Fodor et Noam Chomsky selon laquelle l'esprit/cerveau met en jeu des représentations mentales symboliques abstraites et spécialisées sur lesquelles portent des calculs.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Distinctions et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Membre de la National Academy of Sciences (États-Unis) 2002
 Membre de l'American Academy of Arts and Sciences 2001
@@ -596,7 +612,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Avec A. P. King, Memory and the computational brain: Why cognitive science will transform neuroscience, New York: Wiley/Blackwell, 2009
 Editor Stevens’ handbook of experimental psychology, volume 3: Learning, motivation and emotion, New York, Wiley, 2012
